--- a/数据整理/stocks/A股/深证主板/000034-神州数码.xlsx
+++ b/数据整理/stocks/A股/深证主板/000034-神州数码.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>12.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>93.95</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>7.48</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9552</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>93.97</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>7.24</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6393</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -558,15 +588,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>63.13</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>3.19</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2613</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>6</v>
       </c>
     </row>
@@ -586,15 +626,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>61.32</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>3.86</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0992</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>7</v>
       </c>
     </row>
@@ -609,7 +659,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -630,15 +680,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -660,15 +720,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>67.28</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.20</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2250</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -688,15 +758,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>67.57</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.24</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0671</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
       </c>
     </row>
@@ -716,15 +796,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>90.81</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1.04</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -744,15 +834,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>90.81</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1.04</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>2</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000034-神州数码.xlsx
+++ b/数据整理/stocks/A股/深证主板/000034-神州数码.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -859,4 +860,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>090007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成策略回报混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>75.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2661</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512040</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中证价值ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519117</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>浦银安盛基本面400指数</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>162907</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰信中证锐联基本面400指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003366</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浙商汇金中证转型成长指数</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000034-神州数码.xlsx
+++ b/数据整理/stocks/A股/深证主板/000034-神州数码.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1106,4 +1107,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>090007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成策略回报混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>67.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1874</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000034-神州数码.xlsx
+++ b/数据整理/stocks/A股/深证主板/000034-神州数码.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1201,4 +1202,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000034-神州数码.xlsx
+++ b/数据整理/stocks/A股/深证主板/000034-神州数码.xlsx
@@ -1226,12 +1226,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000034-神州数码.xlsx
+++ b/数据整理/stocks/A股/深证主板/000034-神州数码.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1210,7 +1211,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1221,17 +1222,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1241,14 +1262,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.19</v>
+          <t>006165</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1257,14 +1300,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.29</v>
+          <t>006166</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1273,11 +1338,117 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>013442</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强E</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>0.29</v>
@@ -1289,13 +1460,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
       <c r="D5" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
         <v>1.95</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000034-神州数码.xlsx
+++ b/数据整理/stocks/A股/深证主板/000034-神州数码.xlsx
@@ -6,12 +6,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,209 +455,627 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>070021</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>嘉实主题新动力混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>12.77</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.95</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.48</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.9552</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>3</v>
       </c>
+      <c r="D2" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000985</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>嘉实逆向策略股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>8.83</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.97</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>7.24</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.6393</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>090007</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>大成策略回报混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>8.19</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>63.13</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2613</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>090013</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>大成竞争优势混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>61.32</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.86</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0992</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.95</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006165</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006166</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013442</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强E</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>090007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成策略回报混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>67.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1874</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>090007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成策略回报混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>75.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2661</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512040</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中证价值ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519117</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>浦银安盛基本面400指数</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>162907</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰信中证锐联基本面400指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003366</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浙商汇金中证转型成长指数</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -865,127 +1283,127 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>基金金额</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>090007</t>
+          <t>070021</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>大成策略回报混合</t>
+          <t>嘉实主题新动力混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7.37</t>
+          <t>12.77</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>75.71</t>
+          <t>93.95</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.61</t>
+          <t>7.48</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2661</t>
+          <t>0.9552</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>512040</t>
+          <t>000985</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富国中证价值ETF</t>
+          <t>嘉实逆向策略股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>8.83</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>98.73</t>
+          <t>93.97</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>7.24</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0241</t>
+          <t>0.6393</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -993,500 +1411,82 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>519117</t>
+          <t>090007</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>浦银安盛基本面400指数</t>
+          <t>大成策略回报混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>8.19</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.79</t>
+          <t>63.13</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0015</t>
+          <t>0.2613</t>
         </is>
       </c>
       <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>090013</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>61.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0992</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>162907</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>泰信中证锐联基本面400指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.02</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0014</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>003366</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>浙商汇金中证转型成长指数</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>91.61</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0012</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>090007</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>大成策略回报混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>8.52</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>67.62</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1874</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>006165</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>建信中证1000指数增强A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.58</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0251</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>006166</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>建信中证1000指数增强C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.58</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0084</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>013442</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>建信中证1000指数增强E</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.58</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.29</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.29</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.95</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000034-神州数码.xlsx
+++ b/数据整理/stocks/A股/深证主板/000034-神州数码.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.19</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.29</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="5">
@@ -534,11 +535,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>0.29</v>
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>4</v>
       </c>
       <c r="D6" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
         <v>1.95</v>
       </c>
     </row>
@@ -566,6 +583,594 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>070021</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实主题新动力混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9053</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000985</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实逆向策略股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5745</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012466</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4866</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014307</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实多元动力混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0680</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005310</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0589</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004671</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中融核心成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>62.39</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012467</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010008</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中融成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>62.36</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010009</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中融成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>62.36</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014308</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实多元动力混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010236</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014692</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中加量化研选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>68.41</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519117</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>浦银安盛基本面400指数</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014691</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中加量化研选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>68.41</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -735,7 +1340,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -829,7 +1434,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1075,7 +1680,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1283,7 +1888,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/000034-神州数码.xlsx
+++ b/数据整理/stocks/A股/深证主板/000034-神州数码.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="D2" t="n">
-        <v>2.2</v>
+        <v>6.01</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.19</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.29</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="6">
@@ -551,11 +552,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>0.29</v>
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>4</v>
       </c>
       <c r="D7" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
         <v>1.95</v>
       </c>
     </row>
@@ -583,6 +600,1580 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010420</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>民生加银成长优选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>33.68</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3169</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000136</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>民生加银策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8276</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>070021</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实主题新动力混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7225</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000985</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实逆向策略股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4635</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003378</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰康策略优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.78</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4120</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009659</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>民生加银新动能一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3956</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012466</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3932</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010116</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>民生加银新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.62</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3320</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009660</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>民生加银新动能一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1525</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006058</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>民生加银新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.91</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1428</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501200</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>民生加银科技创新 3 年封闭混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.66</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0990</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005310</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0865</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001170</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泰达宏利复兴伟业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0799</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007853</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华商计算机行业量化股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0767</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014307</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实多元动力混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0636</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004671</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中融核心成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>65.86</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0571</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010009</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中融成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>60.81</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012467</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>016029</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>湘财成长优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010117</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>民生加银新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>85.62</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013262</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>西部利得个股精选股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>673090</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>西部利得个股精选股票A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010008</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中融成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>60.81</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000966</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中邮核心科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008336</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>宝盈祥裕增强回报混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>36.55</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014308</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实多元动力混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>350005</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>天治中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010236</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒产业精选股票C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>519127</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>浦银安盛盛世精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>23.43</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000994</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>建信睿盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>519177</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>浦银安盛盛世精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>23.43</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009709</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>民生加银策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>81.96</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>000995</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>建信睿盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>519175</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>浦银安盛经济带崛起灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>23.04</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>016030</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>湘财成长优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008337</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>宝盈祥裕增强回报混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>36.55</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001530</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>万家瑞富灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>23.67</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008162</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>浦银安盛经济带崛起灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>23.04</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>012007</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>万家瑞富灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>23.67</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>017628</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华商计算机行业量化股票C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1170,7 +2761,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1340,7 +2931,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1434,7 +3025,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1680,7 +3271,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1888,7 +3479,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
